--- a/biology/Médecine/Projet_High_5s/Projet_High_5s.xlsx
+++ b/biology/Médecine/Projet_High_5s/Projet_High_5s.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le projet High 5s est une initiative internationale lancée par l’Alliance mondiale pour la sécurité du patient[1],[Note 1] de l’Organisation mondiale de la santé (OMS) en 2006.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le projet High 5s est une initiative internationale lancée par l’Alliance mondiale pour la sécurité du patient,[Note 1] de l’Organisation mondiale de la santé (OMS) en 2006.
 Coordonné par le centre collaborateur OMS pour la sécurité des patients (« Joint Commission International »), ce projet réunit huit pays : Australie, Allemagne, Pays Bas, Canada, États-Unis, Singapour, République de Trinité-et-Tobago, France.
 L’objectif général du projet High 5s est de réduire, de façon pérenne et mesurable, des problèmes majeurs liés à la sécurité des patients. Plus précisément, High 5s vise à évaluer la faisabilité et l’impact de solutions standardisées déployées au sein d’établissements volontaires dans les huit pays participants, pendant cinq ans.
-En France, le projet est coordonné par la Haute Autorité de santé[2], engagée depuis 2009, avec le soutien du Ministère de la Santé.
+En France, le projet est coordonné par la Haute Autorité de santé, engagée depuis 2009, avec le soutien du Ministère de la Santé.
 </t>
         </is>
       </c>
